--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\1'st_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\lecNote\project(1st)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5E0E7-8A91-4305-99B5-C89DF6F661D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>기획 및 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,13 +115,60 @@
   <si>
     <t>프로젝트명
 (2025.01.13~2025.01.24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/18(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/13(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/14(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/15(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/16(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/17(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/20(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/21(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/22(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/23(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/24(금)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +524,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,17 +560,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +595,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -649,23 +701,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -701,23 +736,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -893,64 +911,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1"/>
     <col min="2" max="2" width="0.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.75" style="1" customWidth="1"/>
-    <col min="5" max="14" width="5.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="0.75" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="2.25" style="1"/>
+    <col min="5" max="15" width="5.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="0.75" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="2"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="2"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="2"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -965,10 +985,11 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="13"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -983,72 +1004,77 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O5" s="10"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="13"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="13"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="29"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="10">
-        <v>4</v>
-      </c>
-      <c r="I7" s="10">
-        <v>5</v>
-      </c>
-      <c r="J7" s="10">
-        <v>6</v>
-      </c>
-      <c r="K7" s="10">
-        <v>7</v>
-      </c>
-      <c r="L7" s="10">
-        <v>8</v>
-      </c>
-      <c r="M7" s="10">
-        <v>9</v>
-      </c>
-      <c r="N7" s="10">
-        <v>10</v>
-      </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E7" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="13"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1063,10 +1089,11 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="3"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="13"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9" t="s">
@@ -1083,10 +1110,11 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="3"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="13"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
@@ -1101,13 +1129,14 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="3"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="13"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="7"/>
@@ -1121,15 +1150,16 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="3"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="32"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1139,10 +1169,11 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="3"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
@@ -1157,13 +1188,14 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="3"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="13"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="7"/>
@@ -1177,13 +1209,14 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="3"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="13"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="25"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1195,10 +1228,11 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="3"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
@@ -1213,10 +1247,11 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="3"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="10" t="s">
@@ -1233,13 +1268,14 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="3"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="7"/>
@@ -1248,18 +1284,19 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="3"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="13"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="7"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1271,10 +1308,11 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="3"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7"/>
@@ -1289,13 +1327,14 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="3"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="7"/>
@@ -1303,34 +1342,36 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="3"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="13"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="7"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="3"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7"/>
@@ -1340,18 +1381,19 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="7"/>
@@ -1359,34 +1401,36 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="3"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="3"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7"/>
@@ -1401,13 +1445,14 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="3"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="7"/>
@@ -1415,34 +1460,36 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="3"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="7"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="3"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7"/>
@@ -1457,10 +1504,11 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="3"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="10" t="s">
@@ -1477,13 +1525,14 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="3"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="7"/>
@@ -1492,33 +1541,35 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="3"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="13"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="7"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="3"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
@@ -1533,13 +1584,14 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="3"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="13"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7"/>
@@ -1548,33 +1600,35 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="21"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="21"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="13"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="35"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="7"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="3"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A36" s="13"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
@@ -1589,10 +1643,11 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="3"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="13"/>
       <c r="B37" s="3"/>
       <c r="C37" s="10" t="s">
@@ -1609,13 +1664,14 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O37" s="3"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A38" s="13"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="7"/>
@@ -1624,33 +1680,35 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="21"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="21"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O39" s="3"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
@@ -1665,13 +1723,14 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O40" s="3"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A41" s="13"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="7"/>
@@ -1680,33 +1739,35 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="21"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="21"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A42" s="13"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O42" s="3"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
@@ -1721,13 +1782,14 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O43" s="3"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="13"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="7"/>
@@ -1736,18 +1798,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="21"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="21"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A45" s="13"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="33"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="7"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1758,11 +1821,12 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A46" s="13"/>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
@@ -1777,13 +1841,14 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O46" s="3"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="13"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="7"/>
@@ -1791,34 +1856,36 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="21"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O47" s="3"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A48" s="13"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="33"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="7"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="3"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="13"/>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
@@ -1833,13 +1900,14 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O49" s="3"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="13"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="7"/>
@@ -1847,34 +1915,36 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="21"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="3"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="13"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="33"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="7"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="5"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O51" s="3"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="13"/>
       <c r="B52" s="3"/>
       <c r="C52" s="7"/>
@@ -1889,13 +1959,14 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O52" s="3"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="13"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="4"/>
@@ -1909,13 +1980,14 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O53" s="3"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="13"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1927,10 +1999,11 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O54" s="3"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="12"/>
@@ -1945,10 +2018,11 @@
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O55" s="12"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1965,8 +2039,9 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1975,18 +2050,18 @@
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
-      <c r="K57" s="21" t="s">
+      <c r="I57" s="24"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="23" t="s">
+      <c r="O57" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2002,14 +2077,16 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2017,12 +2094,11 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
